--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.13488307090048</v>
+        <v>8.205621000000001</v>
       </c>
       <c r="H2">
-        <v>7.13488307090048</v>
+        <v>24.616863</v>
       </c>
       <c r="I2">
-        <v>0.009730204710944578</v>
+        <v>0.01071002656574725</v>
       </c>
       <c r="J2">
-        <v>0.009730204710944578</v>
+        <v>0.01071002656574725</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.162661581579636</v>
+        <v>0.1918176666666667</v>
       </c>
       <c r="N2">
-        <v>0.162661581579636</v>
+        <v>0.575453</v>
       </c>
       <c r="O2">
-        <v>0.0003252739039953586</v>
+        <v>0.0003700706761723729</v>
       </c>
       <c r="P2">
-        <v>0.0003252739039953586</v>
+        <v>0.000370070676172373</v>
       </c>
       <c r="Q2">
-        <v>1.160571364698442</v>
+        <v>1.573983073771</v>
       </c>
       <c r="R2">
-        <v>1.160571364698442</v>
+        <v>14.165847663939</v>
       </c>
       <c r="S2">
-        <v>3.164981673002972E-06</v>
+        <v>3.963466773010162E-06</v>
       </c>
       <c r="T2">
-        <v>3.164981673002972E-06</v>
+        <v>3.963466773010163E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.13488307090048</v>
+        <v>8.205621000000001</v>
       </c>
       <c r="H3">
-        <v>7.13488307090048</v>
+        <v>24.616863</v>
       </c>
       <c r="I3">
-        <v>0.009730204710944578</v>
+        <v>0.01071002656574725</v>
       </c>
       <c r="J3">
-        <v>0.009730204710944578</v>
+        <v>0.01071002656574725</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.603036766314595</v>
+        <v>0.666435</v>
       </c>
       <c r="N3">
-        <v>0.603036766314595</v>
+        <v>1.999305</v>
       </c>
       <c r="O3">
-        <v>0.001205890913681131</v>
+        <v>0.001285742107912907</v>
       </c>
       <c r="P3">
-        <v>0.001205890913681131</v>
+        <v>0.001285742107912907</v>
       </c>
       <c r="Q3">
-        <v>4.302596815108573</v>
+        <v>5.468513031135</v>
       </c>
       <c r="R3">
-        <v>4.302596815108573</v>
+        <v>49.216617280215</v>
       </c>
       <c r="S3">
-        <v>1.17335654491854E-05</v>
+        <v>1.37703321324471E-05</v>
       </c>
       <c r="T3">
-        <v>1.17335654491854E-05</v>
+        <v>1.377033213244711E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.13488307090048</v>
+        <v>8.205621000000001</v>
       </c>
       <c r="H4">
-        <v>7.13488307090048</v>
+        <v>24.616863</v>
       </c>
       <c r="I4">
-        <v>0.009730204710944578</v>
+        <v>0.01071002656574725</v>
       </c>
       <c r="J4">
-        <v>0.009730204710944578</v>
+        <v>0.01071002656574725</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>187.85715421338</v>
+        <v>205.1875406666666</v>
       </c>
       <c r="N4">
-        <v>187.85715421338</v>
+        <v>615.5626219999999</v>
       </c>
       <c r="O4">
-        <v>0.3756574192322628</v>
+        <v>0.3958649546530799</v>
       </c>
       <c r="P4">
-        <v>0.3756574192322628</v>
+        <v>0.3958649546530799</v>
       </c>
       <c r="Q4">
-        <v>1340.338829344586</v>
+        <v>1683.691192632754</v>
       </c>
       <c r="R4">
-        <v>1340.338829344586</v>
+        <v>15153.22073369478</v>
       </c>
       <c r="S4">
-        <v>0.003655223590315046</v>
+        <v>0.004239724180782815</v>
       </c>
       <c r="T4">
-        <v>0.003655223590315046</v>
+        <v>0.004239724180782817</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.13488307090048</v>
+        <v>8.205621000000001</v>
       </c>
       <c r="H5">
-        <v>7.13488307090048</v>
+        <v>24.616863</v>
       </c>
       <c r="I5">
-        <v>0.009730204710944578</v>
+        <v>0.01071002656574725</v>
       </c>
       <c r="J5">
-        <v>0.009730204710944578</v>
+        <v>0.01071002656574725</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>243.693118544297</v>
+        <v>243.8577783333334</v>
       </c>
       <c r="N5">
-        <v>243.693118544297</v>
+        <v>731.573335</v>
       </c>
       <c r="O5">
-        <v>0.4873124389664168</v>
+        <v>0.4704708095241973</v>
       </c>
       <c r="P5">
-        <v>0.4873124389664168</v>
+        <v>0.4704708095241973</v>
       </c>
       <c r="Q5">
-        <v>1738.721905996648</v>
+        <v>2001.004506905345</v>
       </c>
       <c r="R5">
-        <v>1738.721905996648</v>
+        <v>18009.04056214811</v>
       </c>
       <c r="S5">
-        <v>0.004741649789332921</v>
+        <v>0.005038754868412767</v>
       </c>
       <c r="T5">
-        <v>0.004741649789332921</v>
+        <v>0.005038754868412769</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.13488307090048</v>
+        <v>8.205621000000001</v>
       </c>
       <c r="H6">
-        <v>7.13488307090048</v>
+        <v>24.616863</v>
       </c>
       <c r="I6">
-        <v>0.009730204710944578</v>
+        <v>0.01071002656574725</v>
       </c>
       <c r="J6">
-        <v>0.009730204710944578</v>
+        <v>0.01071002656574725</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>66.5989036175532</v>
+        <v>67.19573700000001</v>
       </c>
       <c r="N6">
-        <v>66.5989036175532</v>
+        <v>201.587211</v>
       </c>
       <c r="O6">
-        <v>0.1331776389428896</v>
+        <v>0.1296396325720308</v>
       </c>
       <c r="P6">
-        <v>0.1331776389428896</v>
+        <v>0.1296396325720308</v>
       </c>
       <c r="Q6">
-        <v>475.1753899614131</v>
+        <v>551.3827506376771</v>
       </c>
       <c r="R6">
-        <v>475.1753899614131</v>
+        <v>4962.444755739094</v>
       </c>
       <c r="S6">
-        <v>0.00129584568983458</v>
+        <v>0.001388443908820162</v>
       </c>
       <c r="T6">
-        <v>0.00129584568983458</v>
+        <v>0.001388443908820162</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.13488307090048</v>
+        <v>8.205621000000001</v>
       </c>
       <c r="H7">
-        <v>7.13488307090048</v>
+        <v>24.616863</v>
       </c>
       <c r="I7">
-        <v>0.009730204710944578</v>
+        <v>0.01071002656574725</v>
       </c>
       <c r="J7">
-        <v>0.009730204710944578</v>
+        <v>0.01071002656574725</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.16084479096565</v>
+        <v>1.227808333333333</v>
       </c>
       <c r="N7">
-        <v>1.16084479096565</v>
+        <v>3.683425</v>
       </c>
       <c r="O7">
-        <v>0.002321338040754331</v>
+        <v>0.002368790466606695</v>
       </c>
       <c r="P7">
-        <v>0.002321338040754331</v>
+        <v>0.002368790466606696</v>
       </c>
       <c r="Q7">
-        <v>8.282491847003822</v>
+        <v>10.074929843975</v>
       </c>
       <c r="R7">
-        <v>8.282491847003822</v>
+        <v>90.67436859577501</v>
       </c>
       <c r="S7">
-        <v>2.258709433984265E-05</v>
+        <v>2.536980882604652E-05</v>
       </c>
       <c r="T7">
-        <v>2.258709433984265E-05</v>
+        <v>2.536980882604654E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>197.052226993221</v>
+        <v>201.6037953333334</v>
       </c>
       <c r="H8">
-        <v>197.052226993221</v>
+        <v>604.8113860000001</v>
       </c>
       <c r="I8">
-        <v>0.2687301933806707</v>
+        <v>0.2631345030163434</v>
       </c>
       <c r="J8">
-        <v>0.2687301933806707</v>
+        <v>0.2631345030163436</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.162661581579636</v>
+        <v>0.1918176666666667</v>
       </c>
       <c r="N8">
-        <v>0.162661581579636</v>
+        <v>0.575453</v>
       </c>
       <c r="O8">
-        <v>0.0003252739039953586</v>
+        <v>0.0003700706761723729</v>
       </c>
       <c r="P8">
-        <v>0.0003252739039953586</v>
+        <v>0.000370070676172373</v>
       </c>
       <c r="Q8">
-        <v>32.05282689650677</v>
+        <v>38.67116961198423</v>
       </c>
       <c r="R8">
-        <v>32.05282689650677</v>
+        <v>348.040526507858</v>
       </c>
       <c r="S8">
-        <v>8.741091912235843E-05</v>
+        <v>9.737836345553952E-05</v>
       </c>
       <c r="T8">
-        <v>8.741091912235843E-05</v>
+        <v>9.737836345553958E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>197.052226993221</v>
+        <v>201.6037953333334</v>
       </c>
       <c r="H9">
-        <v>197.052226993221</v>
+        <v>604.8113860000001</v>
       </c>
       <c r="I9">
-        <v>0.2687301933806707</v>
+        <v>0.2631345030163434</v>
       </c>
       <c r="J9">
-        <v>0.2687301933806707</v>
+        <v>0.2631345030163436</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.603036766314595</v>
+        <v>0.666435</v>
       </c>
       <c r="N9">
-        <v>0.603036766314595</v>
+        <v>1.999305</v>
       </c>
       <c r="O9">
-        <v>0.001205890913681131</v>
+        <v>0.001285742107912907</v>
       </c>
       <c r="P9">
-        <v>0.001205890913681131</v>
+        <v>0.001285742107912907</v>
       </c>
       <c r="Q9">
-        <v>118.8297377610815</v>
+        <v>134.35582534297</v>
       </c>
       <c r="R9">
-        <v>118.8297377610815</v>
+        <v>1209.20242808673</v>
       </c>
       <c r="S9">
-        <v>0.000324059298429524</v>
+        <v>0.0003383231105728486</v>
       </c>
       <c r="T9">
-        <v>0.000324059298429524</v>
+        <v>0.0003383231105728488</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>197.052226993221</v>
+        <v>201.6037953333334</v>
       </c>
       <c r="H10">
-        <v>197.052226993221</v>
+        <v>604.8113860000001</v>
       </c>
       <c r="I10">
-        <v>0.2687301933806707</v>
+        <v>0.2631345030163434</v>
       </c>
       <c r="J10">
-        <v>0.2687301933806707</v>
+        <v>0.2631345030163436</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>187.85715421338</v>
+        <v>205.1875406666666</v>
       </c>
       <c r="N10">
-        <v>187.85715421338</v>
+        <v>615.5626219999999</v>
       </c>
       <c r="O10">
-        <v>0.3756574192322628</v>
+        <v>0.3958649546530799</v>
       </c>
       <c r="P10">
-        <v>0.3756574192322628</v>
+        <v>0.3958649546530799</v>
       </c>
       <c r="Q10">
-        <v>37017.67059435548</v>
+        <v>41366.58695351268</v>
       </c>
       <c r="R10">
-        <v>37017.67059435548</v>
+        <v>372299.2825816141</v>
       </c>
       <c r="S10">
-        <v>0.1009504909151697</v>
+        <v>0.1041657281042255</v>
       </c>
       <c r="T10">
-        <v>0.1009504909151697</v>
+        <v>0.1041657281042256</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>197.052226993221</v>
+        <v>201.6037953333334</v>
       </c>
       <c r="H11">
-        <v>197.052226993221</v>
+        <v>604.8113860000001</v>
       </c>
       <c r="I11">
-        <v>0.2687301933806707</v>
+        <v>0.2631345030163434</v>
       </c>
       <c r="J11">
-        <v>0.2687301933806707</v>
+        <v>0.2631345030163436</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>243.693118544297</v>
+        <v>243.8577783333334</v>
       </c>
       <c r="N11">
-        <v>243.693118544297</v>
+        <v>731.573335</v>
       </c>
       <c r="O11">
-        <v>0.4873124389664168</v>
+        <v>0.4704708095241973</v>
       </c>
       <c r="P11">
-        <v>0.4873124389664168</v>
+        <v>0.4704708095241973</v>
       </c>
       <c r="Q11">
-        <v>48020.27171207673</v>
+        <v>49162.65363355471</v>
       </c>
       <c r="R11">
-        <v>48020.27171207673</v>
+        <v>442463.8827019924</v>
       </c>
       <c r="S11">
-        <v>0.1309555659602515</v>
+        <v>0.1237971026478464</v>
       </c>
       <c r="T11">
-        <v>0.1309555659602515</v>
+        <v>0.1237971026478465</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>197.052226993221</v>
+        <v>201.6037953333334</v>
       </c>
       <c r="H12">
-        <v>197.052226993221</v>
+        <v>604.8113860000001</v>
       </c>
       <c r="I12">
-        <v>0.2687301933806707</v>
+        <v>0.2631345030163434</v>
       </c>
       <c r="J12">
-        <v>0.2687301933806707</v>
+        <v>0.2631345030163436</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>66.5989036175532</v>
+        <v>67.19573700000001</v>
       </c>
       <c r="N12">
-        <v>66.5989036175532</v>
+        <v>201.587211</v>
       </c>
       <c r="O12">
-        <v>0.1331776389428896</v>
+        <v>0.1296396325720308</v>
       </c>
       <c r="P12">
-        <v>0.1331776389428896</v>
+        <v>0.1296396325720308</v>
       </c>
       <c r="Q12">
-        <v>13123.46227314574</v>
+        <v>13546.9156094205</v>
       </c>
       <c r="R12">
-        <v>13123.46227314574</v>
+        <v>121922.2404847845</v>
       </c>
       <c r="S12">
-        <v>0.03578885266710385</v>
+        <v>0.03411266028806268</v>
       </c>
       <c r="T12">
-        <v>0.03578885266710385</v>
+        <v>0.03411266028806271</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>197.052226993221</v>
+        <v>201.6037953333334</v>
       </c>
       <c r="H13">
-        <v>197.052226993221</v>
+        <v>604.8113860000001</v>
       </c>
       <c r="I13">
-        <v>0.2687301933806707</v>
+        <v>0.2631345030163434</v>
       </c>
       <c r="J13">
-        <v>0.2687301933806707</v>
+        <v>0.2631345030163436</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.16084479096565</v>
+        <v>1.227808333333333</v>
       </c>
       <c r="N13">
-        <v>1.16084479096565</v>
+        <v>3.683425</v>
       </c>
       <c r="O13">
-        <v>0.002321338040754331</v>
+        <v>0.002368790466606695</v>
       </c>
       <c r="P13">
-        <v>0.002321338040754331</v>
+        <v>0.002368790466606696</v>
       </c>
       <c r="Q13">
-        <v>228.7470512532615</v>
+        <v>247.5308199418944</v>
       </c>
       <c r="R13">
-        <v>228.7470512532615</v>
+        <v>2227.77737947705</v>
       </c>
       <c r="S13">
-        <v>0.0006238136205938185</v>
+        <v>0.000623310502180405</v>
       </c>
       <c r="T13">
-        <v>0.0006238136205938185</v>
+        <v>0.0006233105021804054</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.83702265024242</v>
+        <v>4.903983</v>
       </c>
       <c r="H14">
-        <v>2.83702265024242</v>
+        <v>14.711949</v>
       </c>
       <c r="I14">
-        <v>0.003868992789668986</v>
+        <v>0.00640070851529371</v>
       </c>
       <c r="J14">
-        <v>0.003868992789668986</v>
+        <v>0.006400708515293712</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.162661581579636</v>
+        <v>0.1918176666666667</v>
       </c>
       <c r="N14">
-        <v>0.162661581579636</v>
+        <v>0.575453</v>
       </c>
       <c r="O14">
-        <v>0.0003252739039953586</v>
+        <v>0.0003700706761723729</v>
       </c>
       <c r="P14">
-        <v>0.0003252739039953586</v>
+        <v>0.000370070676172373</v>
       </c>
       <c r="Q14">
-        <v>0.4614745912656826</v>
+        <v>0.940670576433</v>
       </c>
       <c r="R14">
-        <v>0.4614745912656826</v>
+        <v>8.466035187897001</v>
       </c>
       <c r="S14">
-        <v>1.258482389225524E-06</v>
+        <v>2.368714528237009E-06</v>
       </c>
       <c r="T14">
-        <v>1.258482389225524E-06</v>
+        <v>2.36871452823701E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.83702265024242</v>
+        <v>4.903983</v>
       </c>
       <c r="H15">
-        <v>2.83702265024242</v>
+        <v>14.711949</v>
       </c>
       <c r="I15">
-        <v>0.003868992789668986</v>
+        <v>0.00640070851529371</v>
       </c>
       <c r="J15">
-        <v>0.003868992789668986</v>
+        <v>0.006400708515293712</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.603036766314595</v>
+        <v>0.666435</v>
       </c>
       <c r="N15">
-        <v>0.603036766314595</v>
+        <v>1.999305</v>
       </c>
       <c r="O15">
-        <v>0.001205890913681131</v>
+        <v>0.001285742107912907</v>
       </c>
       <c r="P15">
-        <v>0.001205890913681131</v>
+        <v>0.001285742107912907</v>
       </c>
       <c r="Q15">
-        <v>1.710828964963451</v>
+        <v>3.268185910605</v>
       </c>
       <c r="R15">
-        <v>1.710828964963451</v>
+        <v>29.413673195445</v>
       </c>
       <c r="S15">
-        <v>4.665583250159641E-06</v>
+        <v>8.229660458589829E-06</v>
       </c>
       <c r="T15">
-        <v>4.665583250159641E-06</v>
+        <v>8.229660458589832E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.83702265024242</v>
+        <v>4.903983</v>
       </c>
       <c r="H16">
-        <v>2.83702265024242</v>
+        <v>14.711949</v>
       </c>
       <c r="I16">
-        <v>0.003868992789668986</v>
+        <v>0.00640070851529371</v>
       </c>
       <c r="J16">
-        <v>0.003868992789668986</v>
+        <v>0.006400708515293712</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>187.85715421338</v>
+        <v>205.1875406666666</v>
       </c>
       <c r="N16">
-        <v>187.85715421338</v>
+        <v>615.5626219999999</v>
       </c>
       <c r="O16">
-        <v>0.3756574192322628</v>
+        <v>0.3958649546530799</v>
       </c>
       <c r="P16">
-        <v>0.3756574192322628</v>
+        <v>0.3958649546530799</v>
       </c>
       <c r="Q16">
-        <v>532.9550015134423</v>
+        <v>1006.236211241142</v>
       </c>
       <c r="R16">
-        <v>532.9550015134423</v>
+        <v>9056.125901170277</v>
       </c>
       <c r="S16">
-        <v>0.001453415846395284</v>
+        <v>0.002533816186154327</v>
       </c>
       <c r="T16">
-        <v>0.001453415846395284</v>
+        <v>0.002533816186154328</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.83702265024242</v>
+        <v>4.903983</v>
       </c>
       <c r="H17">
-        <v>2.83702265024242</v>
+        <v>14.711949</v>
       </c>
       <c r="I17">
-        <v>0.003868992789668986</v>
+        <v>0.00640070851529371</v>
       </c>
       <c r="J17">
-        <v>0.003868992789668986</v>
+        <v>0.006400708515293712</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>243.693118544297</v>
+        <v>243.8577783333334</v>
       </c>
       <c r="N17">
-        <v>243.693118544297</v>
+        <v>731.573335</v>
       </c>
       <c r="O17">
-        <v>0.4873124389664168</v>
+        <v>0.4704708095241973</v>
       </c>
       <c r="P17">
-        <v>0.4873124389664168</v>
+        <v>0.4704708095241973</v>
       </c>
       <c r="Q17">
-        <v>691.3628970183817</v>
+        <v>1195.874399364435</v>
       </c>
       <c r="R17">
-        <v>691.3628970183817</v>
+        <v>10762.86959427992</v>
       </c>
       <c r="S17">
-        <v>0.001885408312677075</v>
+        <v>0.003011346516718655</v>
       </c>
       <c r="T17">
-        <v>0.001885408312677075</v>
+        <v>0.003011346516718656</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.83702265024242</v>
+        <v>4.903983</v>
       </c>
       <c r="H18">
-        <v>2.83702265024242</v>
+        <v>14.711949</v>
       </c>
       <c r="I18">
-        <v>0.003868992789668986</v>
+        <v>0.00640070851529371</v>
       </c>
       <c r="J18">
-        <v>0.003868992789668986</v>
+        <v>0.006400708515293712</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>66.5989036175532</v>
+        <v>67.19573700000001</v>
       </c>
       <c r="N18">
-        <v>66.5989036175532</v>
+        <v>201.587211</v>
       </c>
       <c r="O18">
-        <v>0.1331776389428896</v>
+        <v>0.1296396325720308</v>
       </c>
       <c r="P18">
-        <v>0.1331776389428896</v>
+        <v>0.1296396325720308</v>
       </c>
       <c r="Q18">
-        <v>188.9425980443103</v>
+        <v>329.526751920471</v>
       </c>
       <c r="R18">
-        <v>188.9425980443103</v>
+        <v>2965.74076728424</v>
       </c>
       <c r="S18">
-        <v>0.0005152633248151793</v>
+        <v>0.0008297855001233452</v>
       </c>
       <c r="T18">
-        <v>0.0005152633248151793</v>
+        <v>0.0008297855001233455</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.83702265024242</v>
+        <v>4.903983</v>
       </c>
       <c r="H19">
-        <v>2.83702265024242</v>
+        <v>14.711949</v>
       </c>
       <c r="I19">
-        <v>0.003868992789668986</v>
+        <v>0.00640070851529371</v>
       </c>
       <c r="J19">
-        <v>0.003868992789668986</v>
+        <v>0.006400708515293712</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.16084479096565</v>
+        <v>1.227808333333333</v>
       </c>
       <c r="N19">
-        <v>1.16084479096565</v>
+        <v>3.683425</v>
       </c>
       <c r="O19">
-        <v>0.002321338040754331</v>
+        <v>0.002368790466606695</v>
       </c>
       <c r="P19">
-        <v>0.002321338040754331</v>
+        <v>0.002368790466606696</v>
       </c>
       <c r="Q19">
-        <v>3.293342965385477</v>
+        <v>6.021151193924999</v>
       </c>
       <c r="R19">
-        <v>3.293342965385477</v>
+        <v>54.19036074532499</v>
       </c>
       <c r="S19">
-        <v>8.981240142062837E-06</v>
+        <v>1.516193731055603E-05</v>
       </c>
       <c r="T19">
-        <v>8.981240142062837E-06</v>
+        <v>1.516193731055604E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.94727862456574</v>
+        <v>2.952381</v>
       </c>
       <c r="H20">
-        <v>2.94727862456574</v>
+        <v>8.857143000000001</v>
       </c>
       <c r="I20">
-        <v>0.004019354497087291</v>
+        <v>0.003853465684340945</v>
       </c>
       <c r="J20">
-        <v>0.004019354497087291</v>
+        <v>0.003853465684340946</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.162661581579636</v>
+        <v>0.1918176666666667</v>
       </c>
       <c r="N20">
-        <v>0.162661581579636</v>
+        <v>0.575453</v>
       </c>
       <c r="O20">
-        <v>0.0003252739039953586</v>
+        <v>0.0003700706761723729</v>
       </c>
       <c r="P20">
-        <v>0.0003252739039953586</v>
+        <v>0.000370070676172373</v>
       </c>
       <c r="Q20">
-        <v>0.4794090024277175</v>
+        <v>0.5663188345310001</v>
       </c>
       <c r="R20">
-        <v>0.4794090024277175</v>
+        <v>5.096869510779</v>
       </c>
       <c r="S20">
-        <v>1.307391128808884E-06</v>
+        <v>1.426054651411089E-06</v>
       </c>
       <c r="T20">
-        <v>1.307391128808884E-06</v>
+        <v>1.42605465141109E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.94727862456574</v>
+        <v>2.952381</v>
       </c>
       <c r="H21">
-        <v>2.94727862456574</v>
+        <v>8.857143000000001</v>
       </c>
       <c r="I21">
-        <v>0.004019354497087291</v>
+        <v>0.003853465684340945</v>
       </c>
       <c r="J21">
-        <v>0.004019354497087291</v>
+        <v>0.003853465684340946</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.603036766314595</v>
+        <v>0.666435</v>
       </c>
       <c r="N21">
-        <v>0.603036766314595</v>
+        <v>1.999305</v>
       </c>
       <c r="O21">
-        <v>0.001205890913681131</v>
+        <v>0.001285742107912907</v>
       </c>
       <c r="P21">
-        <v>0.001205890913681131</v>
+        <v>0.001285742107912907</v>
       </c>
       <c r="Q21">
-        <v>1.777317371186251</v>
+        <v>1.967570031735</v>
       </c>
       <c r="R21">
-        <v>1.777317371186251</v>
+        <v>17.708130285615</v>
       </c>
       <c r="S21">
-        <v>4.846903066900955E-06</v>
+        <v>4.95456309175458E-06</v>
       </c>
       <c r="T21">
-        <v>4.846903066900955E-06</v>
+        <v>4.954563091754582E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.94727862456574</v>
+        <v>2.952381</v>
       </c>
       <c r="H22">
-        <v>2.94727862456574</v>
+        <v>8.857143000000001</v>
       </c>
       <c r="I22">
-        <v>0.004019354497087291</v>
+        <v>0.003853465684340945</v>
       </c>
       <c r="J22">
-        <v>0.004019354497087291</v>
+        <v>0.003853465684340946</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>187.85715421338</v>
+        <v>205.1875406666666</v>
       </c>
       <c r="N22">
-        <v>187.85715421338</v>
+        <v>615.5626219999999</v>
       </c>
       <c r="O22">
-        <v>0.3756574192322628</v>
+        <v>0.3958649546530799</v>
       </c>
       <c r="P22">
-        <v>0.3756574192322628</v>
+        <v>0.3958649546530799</v>
       </c>
       <c r="Q22">
-        <v>553.6673750848447</v>
+        <v>605.791796500994</v>
       </c>
       <c r="R22">
-        <v>553.6673750848447</v>
+        <v>5452.126168508946</v>
       </c>
       <c r="S22">
-        <v>0.001509900337355401</v>
+        <v>0.001525452018388828</v>
       </c>
       <c r="T22">
-        <v>0.001509900337355401</v>
+        <v>0.001525452018388828</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.94727862456574</v>
+        <v>2.952381</v>
       </c>
       <c r="H23">
-        <v>2.94727862456574</v>
+        <v>8.857143000000001</v>
       </c>
       <c r="I23">
-        <v>0.004019354497087291</v>
+        <v>0.003853465684340945</v>
       </c>
       <c r="J23">
-        <v>0.004019354497087291</v>
+        <v>0.003853465684340946</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>243.693118544297</v>
+        <v>243.8577783333334</v>
       </c>
       <c r="N23">
-        <v>243.693118544297</v>
+        <v>731.573335</v>
       </c>
       <c r="O23">
-        <v>0.4873124389664168</v>
+        <v>0.4704708095241973</v>
       </c>
       <c r="P23">
-        <v>0.4873124389664168</v>
+        <v>0.4704708095241973</v>
       </c>
       <c r="Q23">
-        <v>718.2315192393714</v>
+        <v>719.9610714535452</v>
       </c>
       <c r="R23">
-        <v>718.2315192393714</v>
+        <v>6479.649643081906</v>
       </c>
       <c r="S23">
-        <v>0.001958681443046243</v>
+        <v>0.0018129431199856</v>
       </c>
       <c r="T23">
-        <v>0.001958681443046243</v>
+        <v>0.0018129431199856</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.94727862456574</v>
+        <v>2.952381</v>
       </c>
       <c r="H24">
-        <v>2.94727862456574</v>
+        <v>8.857143000000001</v>
       </c>
       <c r="I24">
-        <v>0.004019354497087291</v>
+        <v>0.003853465684340945</v>
       </c>
       <c r="J24">
-        <v>0.004019354497087291</v>
+        <v>0.003853465684340946</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>66.5989036175532</v>
+        <v>67.19573700000001</v>
       </c>
       <c r="N24">
-        <v>66.5989036175532</v>
+        <v>201.587211</v>
       </c>
       <c r="O24">
-        <v>0.1331776389428896</v>
+        <v>0.1296396325720308</v>
       </c>
       <c r="P24">
-        <v>0.1331776389428896</v>
+        <v>0.1296396325720308</v>
       </c>
       <c r="Q24">
-        <v>196.2855250515285</v>
+        <v>198.3874171997971</v>
       </c>
       <c r="R24">
-        <v>196.2855250515285</v>
+        <v>1785.486754798173</v>
       </c>
       <c r="S24">
-        <v>0.0005352881419965706</v>
+        <v>0.0004995618754468893</v>
       </c>
       <c r="T24">
-        <v>0.0005352881419965706</v>
+        <v>0.0004995618754468895</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.94727862456574</v>
+        <v>2.952381</v>
       </c>
       <c r="H25">
-        <v>2.94727862456574</v>
+        <v>8.857143000000001</v>
       </c>
       <c r="I25">
-        <v>0.004019354497087291</v>
+        <v>0.003853465684340945</v>
       </c>
       <c r="J25">
-        <v>0.004019354497087291</v>
+        <v>0.003853465684340946</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.16084479096565</v>
+        <v>1.227808333333333</v>
       </c>
       <c r="N25">
-        <v>1.16084479096565</v>
+        <v>3.683425</v>
       </c>
       <c r="O25">
-        <v>0.002321338040754331</v>
+        <v>0.002368790466606695</v>
       </c>
       <c r="P25">
-        <v>0.002321338040754331</v>
+        <v>0.002368790466606696</v>
       </c>
       <c r="Q25">
-        <v>3.421333038851545</v>
+        <v>3.624957994975</v>
       </c>
       <c r="R25">
-        <v>3.421333038851545</v>
+        <v>32.624621954775</v>
       </c>
       <c r="S25">
-        <v>9.330280493365719E-06</v>
+        <v>9.128052776462875E-06</v>
       </c>
       <c r="T25">
-        <v>9.330280493365719E-06</v>
+        <v>9.128052776462879E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>514.289848521688</v>
+        <v>537.5836283333333</v>
       </c>
       <c r="H26">
-        <v>514.289848521688</v>
+        <v>1612.750885</v>
       </c>
       <c r="I26">
-        <v>0.7013633520198865</v>
+        <v>0.7016574297985241</v>
       </c>
       <c r="J26">
-        <v>0.7013633520198865</v>
+        <v>0.7016574297985243</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.162661581579636</v>
+        <v>0.1918176666666667</v>
       </c>
       <c r="N26">
-        <v>0.162661581579636</v>
+        <v>0.575453</v>
       </c>
       <c r="O26">
-        <v>0.0003252739039953586</v>
+        <v>0.0003700706761723729</v>
       </c>
       <c r="P26">
-        <v>0.0003252739039953586</v>
+        <v>0.000370070676172373</v>
       </c>
       <c r="Q26">
-        <v>83.6552001508892</v>
+        <v>103.1180372251006</v>
       </c>
       <c r="R26">
-        <v>83.6552001508892</v>
+        <v>928.062335025905</v>
       </c>
       <c r="S26">
-        <v>0.0002281351956307794</v>
+        <v>0.0002596628394869091</v>
       </c>
       <c r="T26">
-        <v>0.0002281351956307794</v>
+        <v>0.0002596628394869092</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>514.289848521688</v>
+        <v>537.5836283333333</v>
       </c>
       <c r="H27">
-        <v>514.289848521688</v>
+        <v>1612.750885</v>
       </c>
       <c r="I27">
-        <v>0.7013633520198865</v>
+        <v>0.7016574297985241</v>
       </c>
       <c r="J27">
-        <v>0.7013633520198865</v>
+        <v>0.7016574297985243</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.603036766314595</v>
+        <v>0.666435</v>
       </c>
       <c r="N27">
-        <v>0.603036766314595</v>
+        <v>1.999305</v>
       </c>
       <c r="O27">
-        <v>0.001205890913681131</v>
+        <v>0.001285742107912907</v>
       </c>
       <c r="P27">
-        <v>0.001205890913681131</v>
+        <v>0.001285742107912907</v>
       </c>
       <c r="Q27">
-        <v>310.1356872009416</v>
+        <v>358.264545348325</v>
       </c>
       <c r="R27">
-        <v>310.1356872009416</v>
+        <v>3224.380908134925</v>
       </c>
       <c r="S27">
-        <v>0.0008457676933897216</v>
+        <v>0.0009021505028219069</v>
       </c>
       <c r="T27">
-        <v>0.0008457676933897216</v>
+        <v>0.0009021505028219074</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>514.289848521688</v>
+        <v>537.5836283333333</v>
       </c>
       <c r="H28">
-        <v>514.289848521688</v>
+        <v>1612.750885</v>
       </c>
       <c r="I28">
-        <v>0.7013633520198865</v>
+        <v>0.7016574297985241</v>
       </c>
       <c r="J28">
-        <v>0.7013633520198865</v>
+        <v>0.7016574297985243</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>187.85715421338</v>
+        <v>205.1875406666666</v>
       </c>
       <c r="N28">
-        <v>187.85715421338</v>
+        <v>615.5626219999999</v>
       </c>
       <c r="O28">
-        <v>0.3756574192322628</v>
+        <v>0.3958649546530799</v>
       </c>
       <c r="P28">
-        <v>0.3756574192322628</v>
+        <v>0.3958649546530799</v>
       </c>
       <c r="Q28">
-        <v>96613.02738411458</v>
+        <v>110305.46260038</v>
       </c>
       <c r="R28">
-        <v>96613.02738411458</v>
+        <v>992749.1634034202</v>
       </c>
       <c r="S28">
-        <v>0.2634723467638796</v>
+        <v>0.2777615866291893</v>
       </c>
       <c r="T28">
-        <v>0.2634723467638796</v>
+        <v>0.2777615866291894</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>514.289848521688</v>
+        <v>537.5836283333333</v>
       </c>
       <c r="H29">
-        <v>514.289848521688</v>
+        <v>1612.750885</v>
       </c>
       <c r="I29">
-        <v>0.7013633520198865</v>
+        <v>0.7016574297985241</v>
       </c>
       <c r="J29">
-        <v>0.7013633520198865</v>
+        <v>0.7016574297985243</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>243.693118544297</v>
+        <v>243.8577783333334</v>
       </c>
       <c r="N29">
-        <v>243.693118544297</v>
+        <v>731.573335</v>
       </c>
       <c r="O29">
-        <v>0.4873124389664168</v>
+        <v>0.4704708095241973</v>
       </c>
       <c r="P29">
-        <v>0.4873124389664168</v>
+        <v>0.4704708095241973</v>
       </c>
       <c r="Q29">
-        <v>125328.8970219242</v>
+        <v>131093.9492737391</v>
       </c>
       <c r="R29">
-        <v>125328.8970219242</v>
+        <v>1179845.543463652</v>
       </c>
       <c r="S29">
-        <v>0.3417830856744725</v>
+        <v>0.3301093390059793</v>
       </c>
       <c r="T29">
-        <v>0.3417830856744725</v>
+        <v>0.3301093390059794</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>514.289848521688</v>
+        <v>537.5836283333333</v>
       </c>
       <c r="H30">
-        <v>514.289848521688</v>
+        <v>1612.750885</v>
       </c>
       <c r="I30">
-        <v>0.7013633520198865</v>
+        <v>0.7016574297985241</v>
       </c>
       <c r="J30">
-        <v>0.7013633520198865</v>
+        <v>0.7016574297985243</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>66.5989036175532</v>
+        <v>67.19573700000001</v>
       </c>
       <c r="N30">
-        <v>66.5989036175532</v>
+        <v>201.587211</v>
       </c>
       <c r="O30">
-        <v>0.1331776389428896</v>
+        <v>0.1296396325720308</v>
       </c>
       <c r="P30">
-        <v>0.1331776389428896</v>
+        <v>0.1296396325720308</v>
       </c>
       <c r="Q30">
-        <v>34251.14005318194</v>
+        <v>36123.32810499242</v>
       </c>
       <c r="R30">
-        <v>34251.14005318194</v>
+        <v>325109.9529449317</v>
       </c>
       <c r="S30">
-        <v>0.0934059152630792</v>
+        <v>0.09096261139051613</v>
       </c>
       <c r="T30">
-        <v>0.0934059152630792</v>
+        <v>0.09096261139051617</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>514.289848521688</v>
+        <v>537.5836283333333</v>
       </c>
       <c r="H31">
-        <v>514.289848521688</v>
+        <v>1612.750885</v>
       </c>
       <c r="I31">
-        <v>0.7013633520198865</v>
+        <v>0.7016574297985241</v>
       </c>
       <c r="J31">
-        <v>0.7013633520198865</v>
+        <v>0.7016574297985243</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.16084479096565</v>
+        <v>1.227808333333333</v>
       </c>
       <c r="N31">
-        <v>1.16084479096565</v>
+        <v>3.683425</v>
       </c>
       <c r="O31">
-        <v>0.002321338040754331</v>
+        <v>0.002368790466606695</v>
       </c>
       <c r="P31">
-        <v>0.002321338040754331</v>
+        <v>0.002368790466606696</v>
       </c>
       <c r="Q31">
-        <v>597.0106917029148</v>
+        <v>660.049658731236</v>
       </c>
       <c r="R31">
-        <v>597.0106917029148</v>
+        <v>5940.446928581125</v>
       </c>
       <c r="S31">
-        <v>0.001628101429434733</v>
+        <v>0.0016620794305305</v>
       </c>
       <c r="T31">
-        <v>0.001628101429434733</v>
+        <v>0.001662079430530501</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>9.010370372930341</v>
+        <v>10.91311666666667</v>
       </c>
       <c r="H32">
-        <v>9.010370372930341</v>
+        <v>32.73935</v>
       </c>
       <c r="I32">
-        <v>0.0122879026017419</v>
+        <v>0.01424386641975045</v>
       </c>
       <c r="J32">
-        <v>0.0122879026017419</v>
+        <v>0.01424386641975045</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.162661581579636</v>
+        <v>0.1918176666666667</v>
       </c>
       <c r="N32">
-        <v>0.162661581579636</v>
+        <v>0.575453</v>
       </c>
       <c r="O32">
-        <v>0.0003252739039953586</v>
+        <v>0.0003700706761723729</v>
       </c>
       <c r="P32">
-        <v>0.0003252739039953586</v>
+        <v>0.000370070676172373</v>
       </c>
       <c r="Q32">
-        <v>1.465641095479144</v>
+        <v>2.093328575061111</v>
       </c>
       <c r="R32">
-        <v>1.465641095479144</v>
+        <v>18.83995717555</v>
       </c>
       <c r="S32">
-        <v>3.996934051183312E-06</v>
+        <v>5.271237277266004E-06</v>
       </c>
       <c r="T32">
-        <v>3.996934051183312E-06</v>
+        <v>5.271237277266007E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>9.010370372930341</v>
+        <v>10.91311666666667</v>
       </c>
       <c r="H33">
-        <v>9.010370372930341</v>
+        <v>32.73935</v>
       </c>
       <c r="I33">
-        <v>0.0122879026017419</v>
+        <v>0.01424386641975045</v>
       </c>
       <c r="J33">
-        <v>0.0122879026017419</v>
+        <v>0.01424386641975045</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.603036766314595</v>
+        <v>0.666435</v>
       </c>
       <c r="N33">
-        <v>0.603036766314595</v>
+        <v>1.999305</v>
       </c>
       <c r="O33">
-        <v>0.001205890913681131</v>
+        <v>0.001285742107912907</v>
       </c>
       <c r="P33">
-        <v>0.001205890913681131</v>
+        <v>0.001285742107912907</v>
       </c>
       <c r="Q33">
-        <v>5.433584612988744</v>
+        <v>7.27288290575</v>
       </c>
       <c r="R33">
-        <v>5.433584612988744</v>
+        <v>65.45594615175001</v>
       </c>
       <c r="S33">
-        <v>1.481787009563929E-05</v>
+        <v>1.831393883535981E-05</v>
       </c>
       <c r="T33">
-        <v>1.481787009563929E-05</v>
+        <v>1.831393883535982E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>9.010370372930341</v>
+        <v>10.91311666666667</v>
       </c>
       <c r="H34">
-        <v>9.010370372930341</v>
+        <v>32.73935</v>
       </c>
       <c r="I34">
-        <v>0.0122879026017419</v>
+        <v>0.01424386641975045</v>
       </c>
       <c r="J34">
-        <v>0.0122879026017419</v>
+        <v>0.01424386641975045</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>187.85715421338</v>
+        <v>205.1875406666666</v>
       </c>
       <c r="N34">
-        <v>187.85715421338</v>
+        <v>615.5626219999999</v>
       </c>
       <c r="O34">
-        <v>0.3756574192322628</v>
+        <v>0.3958649546530799</v>
       </c>
       <c r="P34">
-        <v>0.3756574192322628</v>
+        <v>0.3958649546530799</v>
       </c>
       <c r="Q34">
-        <v>1692.662536667245</v>
+        <v>2239.235569841745</v>
       </c>
       <c r="R34">
-        <v>1692.662536667245</v>
+        <v>20153.1201285757</v>
       </c>
       <c r="S34">
-        <v>0.00461604177914777</v>
+        <v>0.005638647534339037</v>
       </c>
       <c r="T34">
-        <v>0.00461604177914777</v>
+        <v>0.005638647534339039</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>9.010370372930341</v>
+        <v>10.91311666666667</v>
       </c>
       <c r="H35">
-        <v>9.010370372930341</v>
+        <v>32.73935</v>
       </c>
       <c r="I35">
-        <v>0.0122879026017419</v>
+        <v>0.01424386641975045</v>
       </c>
       <c r="J35">
-        <v>0.0122879026017419</v>
+        <v>0.01424386641975045</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>243.693118544297</v>
+        <v>243.8577783333334</v>
       </c>
       <c r="N35">
-        <v>243.693118544297</v>
+        <v>731.573335</v>
       </c>
       <c r="O35">
-        <v>0.4873124389664168</v>
+        <v>0.4704708095241973</v>
       </c>
       <c r="P35">
-        <v>0.4873124389664168</v>
+        <v>0.4704708095241973</v>
       </c>
       <c r="Q35">
-        <v>2195.765255418535</v>
+        <v>2661.248385025806</v>
       </c>
       <c r="R35">
-        <v>2195.765255418535</v>
+        <v>23951.23546523225</v>
       </c>
       <c r="S35">
-        <v>0.005988047786636625</v>
+        <v>0.006701323365254522</v>
       </c>
       <c r="T35">
-        <v>0.005988047786636625</v>
+        <v>0.006701323365254524</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>9.010370372930341</v>
+        <v>10.91311666666667</v>
       </c>
       <c r="H36">
-        <v>9.010370372930341</v>
+        <v>32.73935</v>
       </c>
       <c r="I36">
-        <v>0.0122879026017419</v>
+        <v>0.01424386641975045</v>
       </c>
       <c r="J36">
-        <v>0.0122879026017419</v>
+        <v>0.01424386641975045</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>66.5989036175532</v>
+        <v>67.19573700000001</v>
       </c>
       <c r="N36">
-        <v>66.5989036175532</v>
+        <v>201.587211</v>
       </c>
       <c r="O36">
-        <v>0.1331776389428896</v>
+        <v>0.1296396325720308</v>
       </c>
       <c r="P36">
-        <v>0.1331776389428896</v>
+        <v>0.1296396325720308</v>
       </c>
       <c r="Q36">
-        <v>600.0807880252447</v>
+        <v>733.3149173836501</v>
       </c>
       <c r="R36">
-        <v>600.0807880252447</v>
+        <v>6599.834256452851</v>
       </c>
       <c r="S36">
-        <v>0.001636473856060176</v>
+        <v>0.001846569609061535</v>
       </c>
       <c r="T36">
-        <v>0.001636473856060176</v>
+        <v>0.001846569609061536</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>9.010370372930341</v>
+        <v>10.91311666666667</v>
       </c>
       <c r="H37">
-        <v>9.010370372930341</v>
+        <v>32.73935</v>
       </c>
       <c r="I37">
-        <v>0.0122879026017419</v>
+        <v>0.01424386641975045</v>
       </c>
       <c r="J37">
-        <v>0.0122879026017419</v>
+        <v>0.01424386641975045</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.16084479096565</v>
+        <v>1.227808333333333</v>
       </c>
       <c r="N37">
-        <v>1.16084479096565</v>
+        <v>3.683425</v>
       </c>
       <c r="O37">
-        <v>0.002321338040754331</v>
+        <v>0.002368790466606695</v>
       </c>
       <c r="P37">
-        <v>0.002321338040754331</v>
+        <v>0.002368790466606696</v>
       </c>
       <c r="Q37">
-        <v>10.45964151208741</v>
+        <v>13.39921558597222</v>
       </c>
       <c r="R37">
-        <v>10.45964151208741</v>
+        <v>120.59294027375</v>
       </c>
       <c r="S37">
-        <v>2.852437575050759E-05</v>
+        <v>3.37407349827241E-05</v>
       </c>
       <c r="T37">
-        <v>2.852437575050759E-05</v>
+        <v>3.374073498272411E-05</v>
       </c>
     </row>
   </sheetData>
